--- a/Libary/MTE_121_I.xlsx
+++ b/Libary/MTE_121_I.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AI-Meter_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>перетворювача</t>
   </si>
@@ -174,9 +174,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>X/19-8A</t>
-  </si>
-  <si>
     <t>Tenma 72-6805</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Висновок:</t>
   </si>
   <si>
-    <t xml:space="preserve"> придатний  </t>
-  </si>
-  <si>
     <t>Підпис</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
   </si>
   <si>
     <t>МТЕ 121</t>
-  </si>
-  <si>
-    <t>7 А1H1</t>
   </si>
 </sst>
 </file>
@@ -599,18 +590,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -620,9 +707,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -638,103 +722,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,43 +1011,44 @@
   <dimension ref="A1:W146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:V28"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="4.140625" style="2" customWidth="1"/>
+    <col min="1" max="21" width="4.140625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="2" customWidth="1"/>
     <col min="23" max="23" width="4" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,42 +1077,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="40" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="63"/>
       <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1150,39 +1142,39 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="21">
         <v>0.25</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="F5" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
       <c r="I5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
       <c r="M5" s="21">
         <v>100</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
       <c r="U5" s="22">
         <v>2</v>
       </c>
@@ -1198,26 +1190,26 @@
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="N7" s="33" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="N7" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,28 +1245,28 @@
       <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="29">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="50">
         <v>556621</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="51"/>
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1283,28 +1275,28 @@
       <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="44" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
-      <c r="N10" s="58" t="s">
+      <c r="N10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51"/>
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
@@ -1313,28 +1305,28 @@
       <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
       <c r="I11" s="46"/>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="51"/>
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1343,28 +1335,28 @@
       <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="46"/>
-      <c r="N12" s="58" t="s">
+      <c r="N12" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="51"/>
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
@@ -1373,24 +1365,24 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="50"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -1400,54 +1392,54 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="64" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="34" t="s">
         <v>29</v>
       </c>
@@ -1456,26 +1448,26 @@
       <c r="V16" s="34"/>
     </row>
     <row r="17" spans="1:22" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="34" t="s">
         <v>29</v>
       </c>
@@ -1484,32 +1476,32 @@
       <c r="V17" s="34"/>
     </row>
     <row r="18" spans="1:22" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
+      <c r="A18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
       <c r="S18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
     </row>
     <row r="19" spans="1:22" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1533,405 +1525,405 @@
     </row>
     <row r="20" spans="1:22" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="51" t="s">
+      <c r="D20" s="35"/>
+      <c r="E20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="51" t="s">
+      <c r="G20" s="28"/>
+      <c r="H20" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="25" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
+      <c r="N20" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51" t="s">
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="V21" s="34"/>
+    </row>
+    <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="V21" s="34"/>
-    </row>
-    <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51" t="s">
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51" t="s">
+      <c r="J22" s="28"/>
+      <c r="K22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51" t="s">
+      <c r="L22" s="28"/>
+      <c r="M22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51" t="s">
+      <c r="N22" s="28"/>
+      <c r="O22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51" t="s">
+      <c r="R22" s="28"/>
+      <c r="S22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="T22" s="51"/>
+      <c r="T22" s="28"/>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+      <c r="A23" s="30">
         <v>0.05</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="53" t="e">
+      <c r="B23" s="30"/>
+      <c r="C23" s="27" t="e">
         <f>$I$5*A23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27">
         <f>$M$20*A23</f>
         <v>1</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53" t="e">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27" t="e">
         <f>(I23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53" t="e">
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27" t="e">
         <f t="shared" ref="Q23" si="0">(K23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53" t="e">
+      <c r="R23" s="27"/>
+      <c r="S23" s="27" t="e">
         <f t="shared" ref="S23" si="1">(M23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53">
+      <c r="T23" s="27"/>
+      <c r="U23" s="27">
         <f>$E$5</f>
         <v>0.25</v>
       </c>
-      <c r="V23" s="53"/>
+      <c r="V23" s="27"/>
     </row>
     <row r="24" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+      <c r="A24" s="30">
         <v>0.2</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="53" t="e">
+      <c r="B24" s="30"/>
+      <c r="C24" s="27" t="e">
         <f t="shared" ref="C24:C28" si="2">$I$5*A24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
         <f t="shared" ref="F24:F28" si="3">$M$20*A24</f>
         <v>4</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53" t="e">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27" t="e">
         <f t="shared" ref="O24:O28" si="4">(I24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53" t="e">
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27" t="e">
         <f t="shared" ref="Q24:Q28" si="5">(K24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53" t="e">
+      <c r="R24" s="27"/>
+      <c r="S24" s="27" t="e">
         <f t="shared" ref="S24:S28" si="6">(M24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+      <c r="A25" s="30">
         <v>0.5</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="53" t="e">
+      <c r="B25" s="30"/>
+      <c r="C25" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53" t="e">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53" t="e">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53" t="e">
+      <c r="R25" s="27"/>
+      <c r="S25" s="27" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
     </row>
     <row r="26" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="30">
         <v>0.8</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="53" t="e">
+      <c r="B26" s="30"/>
+      <c r="C26" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53" t="e">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="53" t="e">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53" t="e">
+      <c r="R26" s="27"/>
+      <c r="S26" s="27" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+      <c r="A27" s="30">
         <v>1</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="53" t="e">
+      <c r="B27" s="30"/>
+      <c r="C27" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53" t="e">
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53" t="e">
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53" t="e">
+      <c r="R27" s="27"/>
+      <c r="S27" s="27" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
+      <c r="A28" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="53" t="e">
+      <c r="B28" s="30"/>
+      <c r="C28" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53" t="e">
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53" t="e">
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53" t="e">
+      <c r="R28" s="27"/>
+      <c r="S28" s="27" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -2093,38 +2085,38 @@
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="69"/>
+      <c r="A63" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="69"/>
+      <c r="I63" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="32"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="U63" s="40"/>
-      <c r="V63" s="69"/>
+      <c r="Q63" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+      <c r="T63" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="U63" s="31"/>
+      <c r="V63" s="32"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2211,23 +2203,92 @@
     <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:V20"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="A15:R15"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="A16:R16"/>
+    <mergeCell ref="A17:R17"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U23:V28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M24:N24"/>
@@ -2252,92 +2313,23 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="I21:N21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="U23:V28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:V20"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="A15:R15"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="A16:R16"/>
-    <mergeCell ref="A17:R17"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Libary/MTE_121_I.xlsx
+++ b/Libary/MTE_121_I.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\Mea-Auto_develop\Libary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!XJ\AMSof_Develop\Libary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Вих2" sheetId="1" r:id="rId1"/>
-    <sheet name="Вих3" sheetId="4" r:id="rId2"/>
+    <sheet name="Протокол" sheetId="1" r:id="rId1"/>
+    <sheet name="Графік сигналу" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
@@ -590,39 +590,90 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,15 +690,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,21 +701,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -686,46 +716,16 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="100" zoomScalePageLayoutView="180" workbookViewId="0">
       <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
@@ -1023,32 +1023,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,42 +1077,42 @@
       <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="31" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="61" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="62"/>
-      <c r="P3" s="31" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="28"/>
+      <c r="P3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="31"/>
       <c r="W3" s="19"/>
     </row>
     <row r="4" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,39 +1142,39 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="21">
         <v>0.25</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="21">
         <v>100</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="71" t="s">
+      <c r="R5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
       <c r="U5" s="22">
         <v>2</v>
       </c>
@@ -1190,26 +1190,26 @@
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="N7" s="65" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="N7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,28 +1245,28 @@
       <c r="C9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="50">
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="29">
         <v>556621</v>
       </c>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="51"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -1275,28 +1275,28 @@
       <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="59"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="44" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="45"/>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="50" t="s">
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="51"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
@@ -1305,28 +1305,28 @@
       <c r="C11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="44" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11" s="45"/>
       <c r="I11" s="46"/>
-      <c r="N11" s="41" t="s">
+      <c r="N11" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="50" t="s">
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="51"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
@@ -1335,28 +1335,28 @@
       <c r="C12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="46"/>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="50" t="s">
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="51"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
@@ -1365,24 +1365,24 @@
       <c r="C13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="50"/>
     </row>
     <row r="14" spans="1:23" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
@@ -1392,54 +1392,54 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="52" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
     </row>
     <row r="16" spans="1:23" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
       <c r="S16" s="34" t="s">
         <v>29</v>
       </c>
@@ -1448,26 +1448,26 @@
       <c r="V16" s="34"/>
     </row>
     <row r="17" spans="1:22" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
       <c r="S17" s="34" t="s">
         <v>29</v>
       </c>
@@ -1476,32 +1476,32 @@
       <c r="V17" s="34"/>
     </row>
     <row r="18" spans="1:22" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
       <c r="S18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
     </row>
     <row r="19" spans="1:22" s="9" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
@@ -1530,400 +1530,400 @@
       <c r="B20" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
       <c r="M20" s="25" t="str">
         <f>IF(H20="(-5)..0..5","5",IF(H20="0..5","5",IF(H20="0..2,5..5","5","20")))</f>
         <v>20</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
     </row>
     <row r="21" spans="1:22" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28" t="s">
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28" t="s">
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51" t="s">
         <v>61</v>
       </c>
       <c r="V21" s="34"/>
     </row>
     <row r="22" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28" t="s">
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28" t="s">
+      <c r="J22" s="51"/>
+      <c r="K22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28" t="s">
+      <c r="L22" s="51"/>
+      <c r="M22" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28" t="s">
+      <c r="N22" s="51"/>
+      <c r="O22" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28" t="s">
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28" t="s">
+      <c r="R22" s="51"/>
+      <c r="S22" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="28"/>
+      <c r="T22" s="51"/>
       <c r="U22" s="34"/>
       <c r="V22" s="34"/>
     </row>
     <row r="23" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="72">
         <v>0.05</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="27" t="e">
+      <c r="B23" s="72"/>
+      <c r="C23" s="53" t="e">
         <f>$I$5*A23</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27">
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53">
         <f>$M$20*A23</f>
         <v>1</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27" t="e">
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="70"/>
+      <c r="K23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53" t="e">
         <f>(I23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27" t="e">
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53" t="e">
         <f t="shared" ref="Q23" si="0">(K23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27" t="e">
+      <c r="R23" s="53"/>
+      <c r="S23" s="53" t="e">
         <f t="shared" ref="S23" si="1">(M23-$F23)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27">
+      <c r="T23" s="53"/>
+      <c r="U23" s="53">
         <f>$E$5</f>
         <v>0.25</v>
       </c>
-      <c r="V23" s="27"/>
+      <c r="V23" s="53"/>
     </row>
     <row r="24" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="72">
         <v>0.2</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="27" t="e">
+      <c r="B24" s="72"/>
+      <c r="C24" s="53" t="e">
         <f t="shared" ref="C24:C28" si="2">$I$5*A24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53">
         <f t="shared" ref="F24:F28" si="3">$M$20*A24</f>
         <v>4</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27" t="e">
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="70"/>
+      <c r="K24" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53" t="e">
         <f t="shared" ref="O24:O28" si="4">(I24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27" t="e">
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53" t="e">
         <f t="shared" ref="Q24:Q28" si="5">(K24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27" t="e">
+      <c r="R24" s="53"/>
+      <c r="S24" s="53" t="e">
         <f t="shared" ref="S24:S28" si="6">(M24-$F24)/$M$20*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
     </row>
     <row r="25" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="72">
         <v>0.5</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="27" t="e">
+      <c r="B25" s="72"/>
+      <c r="C25" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27" t="e">
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="70"/>
+      <c r="K25" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27" t="e">
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27" t="e">
+      <c r="R25" s="53"/>
+      <c r="S25" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
     </row>
     <row r="26" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="72">
         <v>0.8</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="27" t="e">
+      <c r="B26" s="72"/>
+      <c r="C26" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27">
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27" t="e">
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27" t="e">
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27" t="e">
+      <c r="R26" s="53"/>
+      <c r="S26" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
     </row>
     <row r="27" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="72">
         <v>1</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="27" t="e">
+      <c r="B27" s="72"/>
+      <c r="C27" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27">
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27" t="e">
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="70"/>
+      <c r="K27" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27" t="e">
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27" t="e">
+      <c r="R27" s="53"/>
+      <c r="S27" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
     </row>
     <row r="28" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="72">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="27" t="e">
+      <c r="B28" s="72"/>
+      <c r="C28" s="53" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27">
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27" t="e">
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="70"/>
+      <c r="K28" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27" t="e">
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27" t="e">
+      <c r="R28" s="53"/>
+      <c r="S28" s="53" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
     </row>
     <row r="29" spans="1:22" s="7" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -2085,38 +2085,38 @@
     </row>
     <row r="62" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" s="16" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="69"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="33" t="s">
+      <c r="I63" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="32"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="69"/>
       <c r="O63" s="20"/>
       <c r="P63" s="20"/>
-      <c r="Q63" s="33" t="s">
+      <c r="Q63" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="U63" s="31"/>
-      <c r="V63" s="32"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="U63" s="40"/>
+      <c r="V63" s="69"/>
     </row>
     <row r="64" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2203,35 +2203,80 @@
     <row r="146" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="N7:U7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L1:V1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O21:T21"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="U23:V28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A21:B22"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="H20:I20"/>
@@ -2256,80 +2301,35 @@
     <mergeCell ref="A16:R16"/>
     <mergeCell ref="A17:R17"/>
     <mergeCell ref="S16:V16"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="U23:V28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O21:T21"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="N7:U7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L1:V1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:T5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.25196850393700793" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2343,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
